--- a/artfynd/A 46376-2022.xlsx
+++ b/artfynd/A 46376-2022.xlsx
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>612420.1795950838</v>
+        <v>612420</v>
       </c>
       <c r="R2" t="n">
-        <v>7034835.515614199</v>
+        <v>7034836</v>
       </c>
       <c r="S2" t="n">
         <v>20</v>
@@ -753,19 +753,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">

--- a/artfynd/A 46376-2022.xlsx
+++ b/artfynd/A 46376-2022.xlsx
@@ -683,7 +683,7 @@
         <v>112079248</v>
       </c>
       <c r="B2" t="n">
-        <v>90678</v>
+        <v>90812</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/artfynd/A 46376-2022.xlsx
+++ b/artfynd/A 46376-2022.xlsx
@@ -683,7 +683,7 @@
         <v>112079248</v>
       </c>
       <c r="B2" t="n">
-        <v>90812</v>
+        <v>90826</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
